--- a/outputs-r202/c__Coriobacteriia.xlsx
+++ b/outputs-r202/c__Coriobacteriia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>o__Coriobacteriales</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -941,6 +1041,11 @@
         <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
+        <is>
+          <t>o__Coriobacteriales</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>o__Coriobacteriales</t>
         </is>
